--- a/biology/Botanique/Ossiculum_aurantiacum/Ossiculum_aurantiacum.xlsx
+++ b/biology/Botanique/Ossiculum_aurantiacum/Ossiculum_aurantiacum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ossiculum aurantiacum P.J.Cribb &amp; Laan. est l'unique espèce du genre monotypique Ossiculum, de plante de la famille Orchidaceae[2]. Elle est endémique au Cameroun, et très rare. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ossiculum aurantiacum P.J.Cribb &amp; Laan. est l'unique espèce du genre monotypique Ossiculum, de plante de la famille Orchidaceae. Elle est endémique au Cameroun, et très rare. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une herbe épiphyte atteignant 15 cm de hauteur[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une herbe épiphyte atteignant 15 cm de hauteur.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Habitat et écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts humides de basse altitude subtropicales ou tropicales constituent son habitat naturel, qui est menacé. Au Cameroun elle a été observée sur deux sites dans la région du Sud-Ouest, la réserve forestière du Mungo et le sanctuaire de faune sauvage de Banyang-Mbo[4]
-La plante est également cultivée à l'université de Wageningue (Pays-Bas) et à l'ombrière de l'École normale supérieure de Yaoundé[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts humides de basse altitude subtropicales ou tropicales constituent son habitat naturel, qui est menacé. Au Cameroun elle a été observée sur deux sites dans la région du Sud-Ouest, la réserve forestière du Mungo et le sanctuaire de faune sauvage de Banyang-Mbo
+La plante est également cultivée à l'université de Wageningue (Pays-Bas) et à l'ombrière de l'École normale supérieure de Yaoundé.
 </t>
         </is>
       </c>
